--- a/result/profiling.xlsx
+++ b/result/profiling.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Num of lights</t>
   </si>
@@ -33,6 +33,18 @@
   </si>
   <si>
     <t>Scissor Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light num </t>
+  </si>
+  <si>
+    <t>sicssor on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Gbuffer </t>
+  </si>
+  <si>
+    <t>3-Gbuffer</t>
   </si>
 </sst>
 </file>
@@ -336,7 +348,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -694,7 +705,657 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>G-Buffer Optimization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4-Gbuffer </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DF3-487A-85D5-BDFE273FAAD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3-Gbuffer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF6699"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.46153846153846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.631578947368418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DF3-487A-85D5-BDFE273FAAD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="488861864"/>
+        <c:axId val="488861536"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="488861864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Lights</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8307705523950352E-2"/>
+              <c:y val="0.76848713596800955"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488861536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488861536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to render one frame(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488861864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31732502187226597"/>
+          <c:y val="0.86631889763779524"/>
+          <c:w val="0.33757217847769028"/>
+          <c:h val="0.10590332458442693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1237,6 +1898,500 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1264,6 +2419,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>983455</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1569,10 +2754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1707,6 +2892,87 @@
         <v>125</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>80</v>
+      </c>
+      <c r="C35">
+        <v>150</v>
+      </c>
+      <c r="D35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <f xml:space="preserve"> 1000 / B36</f>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:D38" si="2" xml:space="preserve"> 1000 / C36</f>
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <f xml:space="preserve"> 1000 / B37</f>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:D39" si="3" xml:space="preserve"> 1000 / C37</f>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>52.631578947368418</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
